--- a/src/main/resources/static/excel_template/FR.xlsx
+++ b/src/main/resources/static/excel_template/FR.xlsx
@@ -19,19 +19,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <x:si>
-    <x:t xml:space="preserve">     금액 : ${data.a}                                                                                                                           (￦ ${data.result})</x:t>
+    <x:t>주소</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">   ${data.clientAddress} ${data.clientRefAddress}  ${data.clientDetailAddress}</x:t>
+    <x:t>일자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>품목명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>합계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수량</x:t>
   </x:si>
   <x:si>
     <x:t>${data.purchaseQuantity}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>${data.corporateName}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   ${data.clientNumber}</x:t>
   </x:si>
   <x:si>
     <x:t>수량 :</x:t>
@@ -49,7 +55,16 @@
     <x:t>거래처명</x:t>
   </x:si>
   <x:si>
-    <x:t>${data.title}</x:t>
+    <x:t xml:space="preserve">   ${data.clientAddress} ${data.clientRefAddress}  ${data.clientDetailAddress}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>${data.vat}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>부가세(VAT) :</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">     금액 : ${data.a}                                                                                                                           (￦ ${data.result})</x:t>
   </x:si>
   <x:si>
     <x:t>${data.purDate}</x:t>
@@ -58,40 +73,25 @@
     <x:t>${data.codName}</x:t>
   </x:si>
   <x:si>
+    <x:t>${data.title}</x:t>
+  </x:si>
+  <x:si>
     <x:t>${data.result}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   ${data.clientNumber}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>${data.corporateName}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">   ${data.cliName}</x:t>
   </x:si>
   <x:si>
     <x:t>${data.unitPrice}</x:t>
   </x:si>
   <x:si>
-    <x:t>일자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수량</x:t>
-  </x:si>
-  <x:si>
-    <x:t>합계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>품목명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단가</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">   ${data.cliName}</x:t>
-  </x:si>
-  <x:si>
     <x:t>${data.supplyPrice}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>${data.vat}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>부가세(VAT) :</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -139,10 +139,6 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -164,10 +160,6 @@
           <hs:underlineShape val="solid"/>
           <hs:underlineType val="1"/>
           <hs:underlineColor rgb="ff800080"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -179,46 +171,16 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffff0000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff1f497d"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="18"/>
-          <x:color rgb="ff1f497d"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="18"/>
+      <x:color rgb="ff1f497d"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -535,11 +497,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="Times New Roman"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Times New Roman"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Times New Roman"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -562,11 +539,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="Tahoma"/>
-      <x:sz val="9"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="Tahoma"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="Tahoma"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1718,6 +1710,9 @@
     <x:xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="top"/>
     </x:xf>
@@ -1791,9 +1786,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="49">
     <x:cellStyle name="20% - 강조색1" xfId="25"/>
@@ -1852,6 +1844,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1934,6 +1927,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1968,6 +1962,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2012,6 +2007,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2055,6 +2051,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2139,6 +2136,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2159,6 +2157,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2189,6 +2188,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2532,7 +2532,7 @@
   <x:dimension ref="A1:N27"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="O13" activeCellId="0" sqref="O13:O13"/>
+      <x:selection activeCell="K20" activeCellId="0" sqref="K20:K20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.75"/>
@@ -2566,13 +2566,13 @@
     </x:row>
     <x:row r="2" spans="1:12" ht="16.5" customHeight="1">
       <x:c r="A2" s="1"/>
-      <x:c r="B2" s="28" t="s">
-        <x:v>10</x:v>
+      <x:c r="B2" s="29" t="s">
+        <x:v>18</x:v>
       </x:c>
-      <x:c r="C2" s="28"/>
-      <x:c r="D2" s="29"/>
-      <x:c r="E2" s="30"/>
-      <x:c r="F2" s="30"/>
+      <x:c r="C2" s="29"/>
+      <x:c r="D2" s="30"/>
+      <x:c r="E2" s="31"/>
+      <x:c r="F2" s="31"/>
       <x:c r="G2" s="21"/>
       <x:c r="H2" s="22"/>
       <x:c r="I2" s="22"/>
@@ -2582,11 +2582,11 @@
     </x:row>
     <x:row r="3" spans="1:11" ht="24" customHeight="1">
       <x:c r="A3" s="1"/>
-      <x:c r="B3" s="28"/>
-      <x:c r="C3" s="28"/>
-      <x:c r="D3" s="30"/>
-      <x:c r="E3" s="30"/>
-      <x:c r="F3" s="30"/>
+      <x:c r="B3" s="29"/>
+      <x:c r="C3" s="29"/>
+      <x:c r="D3" s="31"/>
+      <x:c r="E3" s="31"/>
+      <x:c r="F3" s="31"/>
       <x:c r="G3" s="22"/>
       <x:c r="H3" s="22"/>
       <x:c r="I3" s="22"/>
@@ -2595,11 +2595,11 @@
     </x:row>
     <x:row r="4" spans="1:11" ht="24" customHeight="1">
       <x:c r="A4" s="1"/>
-      <x:c r="B4" s="28"/>
-      <x:c r="C4" s="28"/>
-      <x:c r="D4" s="30"/>
-      <x:c r="E4" s="30"/>
-      <x:c r="F4" s="30"/>
+      <x:c r="B4" s="29"/>
+      <x:c r="C4" s="29"/>
+      <x:c r="D4" s="31"/>
+      <x:c r="E4" s="31"/>
+      <x:c r="F4" s="31"/>
       <x:c r="G4" s="22"/>
       <x:c r="H4" s="22"/>
       <x:c r="I4" s="22"/>
@@ -2635,31 +2635,31 @@
     <x:row r="7" spans="1:11" ht="24" customHeight="1">
       <x:c r="A7" s="1"/>
       <x:c r="B7" s="23" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
-      <x:c r="C7" s="31" t="s">
-        <x:v>21</x:v>
+      <x:c r="C7" s="32" t="s">
+        <x:v>22</x:v>
       </x:c>
-      <x:c r="D7" s="32"/>
-      <x:c r="E7" s="32"/>
+      <x:c r="D7" s="33"/>
+      <x:c r="E7" s="33"/>
       <x:c r="F7" s="23" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
-      <x:c r="G7" s="33" t="s">
-        <x:v>4</x:v>
+      <x:c r="G7" s="34" t="s">
+        <x:v>20</x:v>
       </x:c>
-      <x:c r="H7" s="33"/>
-      <x:c r="I7" s="33"/>
-      <x:c r="J7" s="33"/>
-      <x:c r="K7" s="33"/>
+      <x:c r="H7" s="34"/>
+      <x:c r="I7" s="34"/>
+      <x:c r="J7" s="34"/>
+      <x:c r="K7" s="34"/>
     </x:row>
     <x:row r="8" spans="1:11" ht="24" customHeight="1">
       <x:c r="A8" s="5"/>
       <x:c r="B8" s="24" t="s">
-        <x:v>18</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C8" s="13" t="s">
-        <x:v>1</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="14"/>
       <x:c r="E8" s="14"/>
@@ -2685,18 +2685,18 @@
     </x:row>
     <x:row r="10" spans="1:14" ht="24" customHeight="1">
       <x:c r="A10" s="5"/>
-      <x:c r="B10" s="34" t="s">
-        <x:v>0</x:v>
+      <x:c r="B10" s="35" t="s">
+        <x:v>15</x:v>
       </x:c>
-      <x:c r="C10" s="34"/>
-      <x:c r="D10" s="34"/>
-      <x:c r="E10" s="34"/>
-      <x:c r="F10" s="34"/>
-      <x:c r="G10" s="34"/>
-      <x:c r="H10" s="34"/>
-      <x:c r="I10" s="34"/>
-      <x:c r="J10" s="34"/>
-      <x:c r="K10" s="34"/>
+      <x:c r="C10" s="35"/>
+      <x:c r="D10" s="35"/>
+      <x:c r="E10" s="35"/>
+      <x:c r="F10" s="35"/>
+      <x:c r="G10" s="35"/>
+      <x:c r="H10" s="35"/>
+      <x:c r="I10" s="35"/>
+      <x:c r="J10" s="35"/>
+      <x:c r="K10" s="35"/>
       <x:c r="N10" s="15"/>
     </x:row>
     <x:row r="11" spans="1:11">
@@ -2728,48 +2728,48 @@
     <x:row r="13" spans="1:11" ht="24" customHeight="1">
       <x:c r="A13" s="1"/>
       <x:c r="B13" s="18" t="s">
-        <x:v>15</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D13" s="17"/>
       <x:c r="E13" s="19" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F13" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>3</x:v>
       </x:c>
-      <x:c r="G13" s="35" t="s">
-        <x:v>17</x:v>
+      <x:c r="G13" s="36" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="H13" s="35"/>
-      <x:c r="I13" s="35"/>
-      <x:c r="J13" s="35"/>
-      <x:c r="K13" s="35"/>
+      <x:c r="H13" s="36"/>
+      <x:c r="I13" s="36"/>
+      <x:c r="J13" s="36"/>
+      <x:c r="K13" s="36"/>
     </x:row>
     <x:row r="14" spans="1:12" ht="24" customHeight="1">
       <x:c r="A14" s="5"/>
       <x:c r="B14" s="20" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="20" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D14" s="20"/>
       <x:c r="E14" s="20" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F14" s="20" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G14" s="20"/>
-      <x:c r="H14" s="36" t="s">
-        <x:v>13</x:v>
+      <x:c r="H14" s="37" t="s">
+        <x:v>19</x:v>
       </x:c>
-      <x:c r="I14" s="36"/>
-      <x:c r="J14" s="37"/>
-      <x:c r="K14" s="37"/>
+      <x:c r="I14" s="37"/>
+      <x:c r="J14" s="38"/>
+      <x:c r="K14" s="38"/>
       <x:c r="L14" s="6"/>
     </x:row>
     <x:row r="15" spans="1:1">
@@ -2786,52 +2786,52 @@
     </x:row>
     <x:row r="19" spans="10:11" ht="16.399999999999999">
       <x:c r="J19" s="26" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
-      <x:c r="K19" s="39" t="s">
-        <x:v>14</x:v>
+      <x:c r="K19" s="28" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="10:11" ht="16.399999999999999">
       <x:c r="J20" s="26" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="K20" s="26" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="10:11" ht="16.399999999999999">
       <x:c r="J21" s="26" t="s">
-        <x:v>24</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="K21" s="26" t="s">
-        <x:v>23</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="10:11" ht="16.399999999999999">
       <x:c r="J22" s="26" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="K22" s="26" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="11:11">
       <x:c r="K23" s="27"/>
     </x:row>
     <x:row r="25" spans="5:6">
-      <x:c r="E25" s="38" t="s">
-        <x:v>3</x:v>
+      <x:c r="E25" s="39" t="s">
+        <x:v>21</x:v>
       </x:c>
-      <x:c r="F25" s="38"/>
+      <x:c r="F25" s="39"/>
     </x:row>
     <x:row r="26" spans="5:6">
-      <x:c r="E26" s="38"/>
-      <x:c r="F26" s="38"/>
+      <x:c r="E26" s="39"/>
+      <x:c r="F26" s="39"/>
     </x:row>
     <x:row r="27" spans="5:6">
-      <x:c r="E27" s="38"/>
-      <x:c r="F27" s="38"/>
+      <x:c r="E27" s="39"/>
+      <x:c r="F27" s="39"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="7">
@@ -2843,7 +2843,7 @@
     <x:mergeCell ref="H14:K14"/>
     <x:mergeCell ref="E25:F27"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="63" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>